--- a/Lab/exer01/graph.xlsx
+++ b/Lab/exer01/graph.xlsx
@@ -1,37 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MRH 06\OneDrive\Desktop\CMSC180-Introduction-to-Parallel-Computing\exercises\exer01\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29EDC8AD-81BA-42B6-A119-BC0368F44699}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{38CA2FE1-C07F-4E31-8A03-03363D6B51E1}"/>
+    <workbookView windowWidth="27945" windowHeight="11760"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
@@ -47,25 +25,368 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -73,33 +394,319 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
+    <cellStyle name="Currency" xfId="2" builtinId="4"/>
+    <cellStyle name="Percent" xfId="3" builtinId="5"/>
+    <cellStyle name="Comma [0]" xfId="4" builtinId="6"/>
+    <cellStyle name="Currency [0]" xfId="5" builtinId="7"/>
+    <cellStyle name="Hyperlink" xfId="6" builtinId="8"/>
+    <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9"/>
+    <cellStyle name="Note" xfId="8" builtinId="10"/>
+    <cellStyle name="Warning Text" xfId="9" builtinId="11"/>
+    <cellStyle name="Title" xfId="10" builtinId="15"/>
+    <cellStyle name="CExplanatory Text" xfId="11" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="12" builtinId="16"/>
+    <cellStyle name="Heading 2" xfId="13" builtinId="17"/>
+    <cellStyle name="Heading 3" xfId="14" builtinId="18"/>
+    <cellStyle name="Heading 4" xfId="15" builtinId="19"/>
+    <cellStyle name="Input" xfId="16" builtinId="20"/>
+    <cellStyle name="Output" xfId="17" builtinId="21"/>
+    <cellStyle name="Calculation" xfId="18" builtinId="22"/>
+    <cellStyle name="Check Cell" xfId="19" builtinId="23"/>
+    <cellStyle name="Linked Cell" xfId="20" builtinId="24"/>
+    <cellStyle name="Total" xfId="21" builtinId="25"/>
+    <cellStyle name="Good" xfId="22" builtinId="26"/>
+    <cellStyle name="Bad" xfId="23" builtinId="27"/>
+    <cellStyle name="Neutral" xfId="24" builtinId="28"/>
+    <cellStyle name="Accent1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - Accent1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - Accent1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - Accent1" xfId="28" builtinId="32"/>
+    <cellStyle name="Accent2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - Accent2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - Accent2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - Accent2" xfId="32" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - Accent3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - Accent3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - Accent3" xfId="36" builtinId="40"/>
+    <cellStyle name="Accent4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - Accent4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - Accent4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - Accent4" xfId="40" builtinId="44"/>
+    <cellStyle name="Accent5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - Accent5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - Accent5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - Accent5" xfId="44" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - Accent6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="zh-CN"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -111,6 +718,31 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr defTabSz="914400">
+              <a:defRPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:t>Runtime</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -119,26 +751,6 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
@@ -184,6 +796,9 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
           <c:xVal>
             <c:numRef>
               <c:f>Sheet1!$A$2:$A$16</c:f>
@@ -245,167 +860,54 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>7.0000000000000001E-3</c:v>
+                  <c:v>0.007</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.7400000000000001E-2</c:v>
+                  <c:v>0.0274</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6.1199999999999997E-2</c:v>
+                  <c:v>0.0612</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0.1066</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.16650000000000001</c:v>
+                  <c:v>0.1665</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.23880000000000001</c:v>
+                  <c:v>0.2388</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.32550000000000001</c:v>
+                  <c:v>0.3255</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.42259999999999998</c:v>
+                  <c:v>0.4226</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.53620000000000001</c:v>
+                  <c:v>0.5362</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>0.6573</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1.6884999999999999</c:v>
+                  <c:v>1.6885</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>6.6719999999999997</c:v>
+                  <c:v>6.672</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>25.679300000000001</c:v>
+                  <c:v>25.6793</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>101.24930000000001</c:v>
+                  <c:v>101.2493</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>163.12309999999999</c:v>
+                  <c:v>163.1231</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-4920-49F3-97A8-2573D330A885}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$C$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>complexity</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent2"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Sheet1!$A$2:$A$16</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="15"/>
-                <c:pt idx="0">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>200</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>300</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>400</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>500</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>600</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>700</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>800</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>900</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1000</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>2000</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>4000</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>8000</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>16000</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>20000</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Sheet1!$C$2:$C$16</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="15"/>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="1"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-4920-49F3-97A8-2573D330A885}"/>
-            </c:ext>
-          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -447,7 +949,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -459,7 +961,6 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="873853312"/>
@@ -503,7 +1004,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -515,7 +1016,6 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="813479504"/>
@@ -532,6 +1032,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -545,7 +1046,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -557,19 +1058,11 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
     <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
@@ -592,9 +1085,8 @@
     <a:lstStyle/>
     <a:p>
       <a:pPr>
-        <a:defRPr/>
+        <a:defRPr lang="en-US"/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -606,9 +1098,9 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="zh-CN"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -620,6 +1112,31 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr defTabSz="914400">
+              <a:defRPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:t>Complexity*</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -628,26 +1145,6 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
@@ -693,6 +1190,9 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
           <c:xVal>
             <c:numRef>
               <c:f>Sheet1!$E$2:$E$16</c:f>
@@ -802,119 +1302,6 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-4551-483D-B19E-351F28CFA307}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$G$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>complexity</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent2"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Sheet1!$E$2:$E$16</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="15"/>
-                <c:pt idx="0">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>200</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>300</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>400</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>500</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>600</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>700</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>800</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>900</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1000</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>2000</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>4000</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>8000</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>16000</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>20000</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Sheet1!$G$2:$G$16</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="15"/>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="1"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-4551-483D-B19E-351F28CFA307}"/>
-            </c:ext>
-          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -970,7 +1357,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -982,7 +1369,6 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="873856288"/>
@@ -1032,7 +1418,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -1044,7 +1430,6 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="740742368"/>
@@ -1061,6 +1446,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1074,7 +1460,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -1086,19 +1472,11 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
     <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
@@ -1121,9 +1499,8 @@
     <a:lstStyle/>
     <a:p>
       <a:pPr>
-        <a:defRPr/>
+        <a:defRPr lang="en-US"/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -2247,34 +2624,28 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>571932</xdr:colOff>
+      <xdr:colOff>571500</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>72736</xdr:rowOff>
+      <xdr:rowOff>72390</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>18184</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>44161</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>237490</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>120650</xdr:rowOff>
     </xdr:to>
-    <xdr:graphicFrame macro="">
+    <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="6" name="Chart 5">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{54ADF220-3193-4834-C235-EBA0C672723A}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="6" name="Chart 5"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
+        <a:off x="4876800" y="262890"/>
+        <a:ext cx="4466590" cy="3667760"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -2286,31 +2657,25 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>274925</xdr:colOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>337820</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>110404</xdr:rowOff>
+      <xdr:rowOff>72390</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>30</xdr:col>
-      <xdr:colOff>363681</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>86592</xdr:rowOff>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>573405</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>150495</xdr:rowOff>
     </xdr:to>
-    <xdr:graphicFrame macro="">
+    <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="7" name="Chart 6">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{23A96BE7-57AD-ED3A-9FB9-497823617BA1}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="7" name="Chart 6"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
+        <a:off x="9443720" y="262890"/>
+        <a:ext cx="4436110" cy="3697605"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -2366,7 +2731,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -2399,26 +2764,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -2451,23 +2799,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2609,30 +2940,25 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E5B1C71-873C-40C2-B01E-9712E240CD32}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:G54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" zoomScale="265" zoomScaleNormal="265" workbookViewId="0">
-      <selection activeCell="F46" sqref="F46"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="6"/>
   <cols>
-    <col min="5" max="5" width="9.5703125" customWidth="1"/>
-    <col min="6" max="6" width="10" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.57142857142857" customWidth="1"/>
+    <col min="6" max="6" width="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:7">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -2646,12 +2972,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6">
       <c r="A2">
         <v>100</v>
       </c>
       <c r="B2">
-        <v>7.0000000000000001E-3</v>
+        <v>0.007</v>
       </c>
       <c r="E2">
         <v>100</v>
@@ -2660,12 +2986,12 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6">
       <c r="A3">
         <v>200</v>
       </c>
       <c r="B3">
-        <v>2.7400000000000001E-2</v>
+        <v>0.0274</v>
       </c>
       <c r="E3">
         <v>200</v>
@@ -2674,12 +3000,12 @@
         <v>40000</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6">
       <c r="A4">
         <v>300</v>
       </c>
       <c r="B4">
-        <v>6.1199999999999997E-2</v>
+        <v>0.0612</v>
       </c>
       <c r="E4">
         <v>300</v>
@@ -2688,7 +3014,7 @@
         <v>90000</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6">
       <c r="A5">
         <v>400</v>
       </c>
@@ -2702,12 +3028,12 @@
         <v>160000</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6">
       <c r="A6">
         <v>500</v>
       </c>
       <c r="B6">
-        <v>0.16650000000000001</v>
+        <v>0.1665</v>
       </c>
       <c r="E6">
         <v>500</v>
@@ -2716,12 +3042,12 @@
         <v>250000</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6">
       <c r="A7">
         <v>600</v>
       </c>
       <c r="B7">
-        <v>0.23880000000000001</v>
+        <v>0.2388</v>
       </c>
       <c r="E7">
         <v>600</v>
@@ -2730,12 +3056,12 @@
         <v>360000</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6">
       <c r="A8">
         <v>700</v>
       </c>
       <c r="B8">
-        <v>0.32550000000000001</v>
+        <v>0.3255</v>
       </c>
       <c r="E8">
         <v>700</v>
@@ -2744,12 +3070,12 @@
         <v>490000</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6">
       <c r="A9">
         <v>800</v>
       </c>
       <c r="B9">
-        <v>0.42259999999999998</v>
+        <v>0.4226</v>
       </c>
       <c r="E9">
         <v>800</v>
@@ -2758,12 +3084,12 @@
         <v>640000</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6">
       <c r="A10">
         <v>900</v>
       </c>
       <c r="B10">
-        <v>0.53620000000000001</v>
+        <v>0.5362</v>
       </c>
       <c r="E10">
         <v>900</v>
@@ -2772,7 +3098,7 @@
         <v>810000</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6">
       <c r="A11">
         <v>1000</v>
       </c>
@@ -2786,12 +3112,12 @@
         <v>1000000</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6">
       <c r="A12">
         <v>2000</v>
       </c>
       <c r="B12">
-        <v>1.6884999999999999</v>
+        <v>1.6885</v>
       </c>
       <c r="E12">
         <v>2000</v>
@@ -2800,12 +3126,12 @@
         <v>4000000</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6">
       <c r="A13">
         <v>4000</v>
       </c>
       <c r="B13">
-        <v>6.6719999999999997</v>
+        <v>6.672</v>
       </c>
       <c r="E13">
         <v>4000</v>
@@ -2814,12 +3140,12 @@
         <v>16000000</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6">
       <c r="A14">
         <v>8000</v>
       </c>
       <c r="B14">
-        <v>25.679300000000001</v>
+        <v>25.6793</v>
       </c>
       <c r="E14">
         <v>8000</v>
@@ -2828,12 +3154,12 @@
         <v>64000000</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6">
       <c r="A15">
         <v>16000</v>
       </c>
       <c r="B15">
-        <v>101.24930000000001</v>
+        <v>101.2493</v>
       </c>
       <c r="E15">
         <v>16000</v>
@@ -2842,12 +3168,12 @@
         <v>256000000</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6">
       <c r="A16">
         <v>20000</v>
       </c>
       <c r="B16">
-        <v>163.12309999999999</v>
+        <v>163.1231</v>
       </c>
       <c r="E16">
         <v>20000</v>
@@ -2856,61 +3182,61 @@
         <v>400000000</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5">
       <c r="A40">
         <v>100</v>
       </c>
       <c r="B40">
-        <v>7.0000000000000001E-3</v>
+        <v>0.007</v>
       </c>
       <c r="C40">
-        <v>7.9000000000000008E-3</v>
+        <v>0.0079</v>
       </c>
       <c r="D40">
-        <v>7.1000000000000004E-3</v>
+        <v>0.0071</v>
       </c>
       <c r="E40">
         <f>SUM(B40:D40)/3</f>
-        <v>7.3333333333333332E-3</v>
+        <v>0.00733333333333333</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5">
       <c r="A41">
         <v>200</v>
       </c>
       <c r="B41">
-        <v>2.7400000000000001E-2</v>
+        <v>0.0274</v>
       </c>
       <c r="C41">
-        <v>2.7699999999999999E-2</v>
+        <v>0.0277</v>
       </c>
       <c r="D41">
-        <v>2.69E-2</v>
+        <v>0.0269</v>
       </c>
       <c r="E41">
         <f t="shared" ref="E41:E54" si="0">SUM(B41:D41)/3</f>
-        <v>2.7333333333333331E-2</v>
+        <v>0.0273333333333333</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5">
       <c r="A42">
         <v>300</v>
       </c>
       <c r="B42">
-        <v>6.1199999999999997E-2</v>
+        <v>0.0612</v>
       </c>
       <c r="C42">
-        <v>6.0299999999999999E-2</v>
+        <v>0.0603</v>
       </c>
       <c r="D42">
-        <v>5.91E-2</v>
+        <v>0.0591</v>
       </c>
       <c r="E42">
         <f t="shared" si="0"/>
-        <v>6.0199999999999997E-2</v>
+        <v>0.0602</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5">
       <c r="A43">
         <v>400</v>
       </c>
@@ -2925,100 +3251,100 @@
       </c>
       <c r="E43">
         <f t="shared" si="0"/>
-        <v>0.10703333333333333</v>
+        <v>0.107033333333333</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5">
       <c r="A44">
         <v>500</v>
       </c>
       <c r="B44">
-        <v>0.16650000000000001</v>
+        <v>0.1665</v>
       </c>
       <c r="C44">
-        <v>0.16639999999999999</v>
+        <v>0.1664</v>
       </c>
       <c r="D44">
-        <v>0.16550000000000001</v>
+        <v>0.1655</v>
       </c>
       <c r="E44">
         <f t="shared" si="0"/>
-        <v>0.16613333333333333</v>
+        <v>0.166133333333333</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5">
       <c r="A45">
         <v>600</v>
       </c>
       <c r="B45">
-        <v>0.23880000000000001</v>
+        <v>0.2388</v>
       </c>
       <c r="C45">
-        <v>0.24060000000000001</v>
+        <v>0.2406</v>
       </c>
       <c r="D45">
-        <v>0.23599999999999999</v>
+        <v>0.236</v>
       </c>
       <c r="E45">
         <f t="shared" si="0"/>
-        <v>0.23846666666666669</v>
+        <v>0.238466666666667</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5">
       <c r="A46">
         <v>700</v>
       </c>
       <c r="B46">
-        <v>0.32550000000000001</v>
+        <v>0.3255</v>
       </c>
       <c r="C46">
-        <v>0.32219999999999999</v>
+        <v>0.3222</v>
       </c>
       <c r="D46">
-        <v>0.32169999999999999</v>
+        <v>0.3217</v>
       </c>
       <c r="E46">
         <f t="shared" si="0"/>
-        <v>0.32313333333333333</v>
+        <v>0.323133333333333</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5">
       <c r="A47">
         <v>800</v>
       </c>
       <c r="B47">
-        <v>0.42259999999999998</v>
+        <v>0.4226</v>
       </c>
       <c r="C47">
-        <v>0.43140000000000001</v>
+        <v>0.4314</v>
       </c>
       <c r="D47">
-        <v>0.42180000000000001</v>
+        <v>0.4218</v>
       </c>
       <c r="E47">
         <f t="shared" si="0"/>
-        <v>0.42526666666666668</v>
+        <v>0.425266666666667</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5">
       <c r="A48">
         <v>900</v>
       </c>
       <c r="B48">
-        <v>0.53620000000000001</v>
+        <v>0.5362</v>
       </c>
       <c r="C48">
-        <v>0.54800000000000004</v>
+        <v>0.548</v>
       </c>
       <c r="D48">
-        <v>0.53800000000000003</v>
+        <v>0.538</v>
       </c>
       <c r="E48">
         <f t="shared" si="0"/>
-        <v>0.5407333333333334</v>
+        <v>0.540733333333333</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:5">
       <c r="A49">
         <v>1000</v>
       </c>
@@ -3026,40 +3352,40 @@
         <v>0.6573</v>
       </c>
       <c r="C49">
-        <v>0.66879999999999995</v>
+        <v>0.6688</v>
       </c>
       <c r="D49">
-        <v>0.67369999999999997</v>
+        <v>0.6737</v>
       </c>
       <c r="E49">
         <f t="shared" si="0"/>
-        <v>0.66659999999999997</v>
+        <v>0.6666</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:5">
       <c r="A50">
         <v>2000</v>
       </c>
       <c r="B50">
-        <v>2.6884999999999999</v>
+        <v>2.6885</v>
       </c>
       <c r="C50">
-        <v>2.6747000000000001</v>
+        <v>2.6747</v>
       </c>
       <c r="D50">
         <v>2.7919</v>
       </c>
       <c r="E50">
         <f t="shared" si="0"/>
-        <v>2.7183666666666668</v>
+        <v>2.71836666666667</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:5">
       <c r="A51">
         <v>4000</v>
       </c>
       <c r="B51">
-        <v>10.672000000000001</v>
+        <v>10.672</v>
       </c>
       <c r="C51">
         <v>10.7319</v>
@@ -3069,65 +3395,66 @@
       </c>
       <c r="E51">
         <f t="shared" si="0"/>
-        <v>10.688766666666666</v>
+        <v>10.6887666666667</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:5">
       <c r="A52">
         <v>8000</v>
       </c>
       <c r="B52">
-        <v>45.679299999999998</v>
+        <v>45.6793</v>
       </c>
       <c r="C52">
-        <v>43.053199999999997</v>
+        <v>43.0532</v>
       </c>
       <c r="D52">
-        <v>43.162300000000002</v>
+        <v>43.1623</v>
       </c>
       <c r="E52">
         <f t="shared" si="0"/>
-        <v>43.964933333333327</v>
+        <v>43.9649333333333</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:5">
       <c r="A53">
         <v>16000</v>
       </c>
       <c r="B53">
-        <v>101.24930000000001</v>
+        <v>101.2493</v>
       </c>
       <c r="C53">
         <v>102.3986</v>
       </c>
       <c r="D53">
-        <v>101.47799999999999</v>
+        <v>101.478</v>
       </c>
       <c r="E53">
         <f t="shared" si="0"/>
-        <v>101.70863333333334</v>
+        <v>101.708633333333</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:5">
       <c r="A54">
         <v>20000</v>
       </c>
       <c r="B54">
-        <v>163.12309999999999</v>
+        <v>163.1231</v>
       </c>
       <c r="C54">
-        <v>158.49459999999999</v>
+        <v>158.4946</v>
       </c>
       <c r="D54">
-        <v>167.43860000000001</v>
+        <v>167.4386</v>
       </c>
       <c r="E54">
         <f t="shared" si="0"/>
-        <v>163.01876666666666</v>
+        <v>163.018766666667</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>